--- a/Masjid/output/SPMD00000/RekodBantuan.xlsx
+++ b/Masjid/output/SPMD00000/RekodBantuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>MASJIDPRO PENANG</t>
   </si>
@@ -231,7 +231,7 @@
     <t>0125859220</t>
   </si>
   <si>
-    <t>NO 12, TAMAN PINANG EMAS, JALAN PADANG TEMBAK, KEPALA BATAS,12345 SEBERANG PERAI UTARA (KEPALA BATAS),KEDAH</t>
+    <t>NO 12, TAMAN PINANG EMAS, JALAN PADANG TEMBAK, KEPALA BATASS,06200 SEBERANG PERAI UTARA (KEPALA BATAS),KEDAH</t>
   </si>
   <si>
     <t>2021-07-12</t>
@@ -522,6 +522,18 @@
     <t>tiada kerja</t>
   </si>
   <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>Keja</t>
+  </si>
+  <si>
+    <t>CIMB</t>
+  </si>
+  <si>
+    <t>tedt</t>
+  </si>
+  <si>
     <t>2022-08-15</t>
   </si>
   <si>
@@ -531,10 +543,85 @@
     <t>TEST</t>
   </si>
   <si>
+    <t>RIDHUAN BIN AMIN</t>
+  </si>
+  <si>
+    <t>045389954</t>
+  </si>
+  <si>
+    <t>BUKIT MERTAJAM,14000 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>bekalan makanan</t>
+  </si>
+  <si>
+    <t>HARITH</t>
+  </si>
+  <si>
+    <t>0174044359</t>
+  </si>
+  <si>
+    <t>59 TAMAN SRI INDAH,14000 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>demam</t>
+  </si>
+  <si>
+    <t>HARITH ISKANDAR</t>
+  </si>
+  <si>
+    <t>RUMAHKU,13200 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>Makanan harian</t>
+  </si>
+  <si>
+    <t>SECARA BERSEMUKA</t>
+  </si>
+  <si>
+    <t>makanan</t>
+  </si>
+  <si>
     <t>2023-03-12</t>
   </si>
   <si>
     <t>Beras</t>
+  </si>
+  <si>
+    <t>Tiada Pkerjaan</t>
+  </si>
+  <si>
+    <t>AZIZI</t>
+  </si>
+  <si>
+    <t>0195656562</t>
+  </si>
+  <si>
+    <t>320 RUMAH MERAH KL,13200 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>kebakaran rumah</t>
+  </si>
+  <si>
+    <t>ubat</t>
+  </si>
+  <si>
+    <t>bantuan</t>
+  </si>
+  <si>
+    <t>Lain-Lain</t>
+  </si>
+  <si>
+    <t>test noti</t>
+  </si>
+  <si>
+    <t>nak noti keluar</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1016,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B6" sqref="B6"/>
@@ -1227,7 +1314,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>42</v>
@@ -1687,7 +1774,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>49</v>
@@ -1981,7 +2068,7 @@
         <v>71</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>49</v>
@@ -2662,7 +2749,7 @@
         <v>71</v>
       </c>
       <c r="I41" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>108</v>
@@ -2705,7 +2792,7 @@
         <v>71</v>
       </c>
       <c r="I42" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>125</v>
@@ -2748,7 +2835,7 @@
         <v>71</v>
       </c>
       <c r="I43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>125</v>
@@ -3006,7 +3093,7 @@
         <v>71</v>
       </c>
       <c r="I49" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>125</v>
@@ -3049,7 +3136,7 @@
         <v>71</v>
       </c>
       <c r="I50" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>108</v>
@@ -3178,7 +3265,7 @@
         <v>71</v>
       </c>
       <c r="I53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>108</v>
@@ -3264,7 +3351,7 @@
         <v>141</v>
       </c>
       <c r="I55" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>108</v>
@@ -3307,7 +3394,7 @@
         <v>141</v>
       </c>
       <c r="I56" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>108</v>
@@ -3354,7 +3441,7 @@
         <v>141</v>
       </c>
       <c r="I57" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>108</v>
@@ -3801,21 +3888,29 @@
       <c r="B67" s="3">
         <v>62</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D67" s="3">
-        <v>901207076887</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+        <v>961129265249</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I67" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="I67" s="3">
+        <v>5</v>
+      </c>
       <c r="J67" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>168</v>
@@ -3833,7 +3928,7 @@
         <v>170</v>
       </c>
       <c r="R67" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -3841,46 +3936,602 @@
         <v>63</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D68" s="3">
-        <v>870826075113</v>
+        <v>961129265249</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I68" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>108</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R68" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="B69" s="3">
+        <v>64</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3">
+        <v>901207076887</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R69" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="B70" s="3">
+        <v>65</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="3">
+        <v>960606076725</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="B71" s="3">
+        <v>66</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="3">
+        <v>990330076725</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R71" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" s="3">
+        <v>67</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="3">
+        <v>661212071236</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="B73" s="3">
+        <v>68</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="3">
+        <v>661212071236</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="B74" s="3">
+        <v>69</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="3">
+        <v>870826075113</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R68" s="3">
+      <c r="R74" s="3">
         <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="B75" s="3">
+        <v>70</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="3">
+        <v>840827025081</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R75" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="B76" s="3">
+        <v>71</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="3">
+        <v>990101085334</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="B77" s="3">
+        <v>72</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="3">
+        <v>990101085334</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="B78" s="3">
+        <v>73</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="3">
+        <v>840827025081</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="B79" s="3">
+        <v>74</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="3">
+        <v>990101085334</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="B80" s="3">
+        <v>75</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="3">
+        <v>990101085334</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R80" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
